--- a/fhir/core/2.2.0/ValueSet-DkCoreProfessionGroupValueSet.xlsx
+++ b/fhir/core/2.2.0/ValueSet-DkCoreProfessionGroupValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-30T22:07:34+02:00</t>
+    <t>2023-05-04T21:35:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/core/2.2.0/ValueSet-DkCoreProfessionGroupValueSet.xlsx
+++ b/fhir/core/2.2.0/ValueSet-DkCoreProfessionGroupValueSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:35:52+02:00</t>
+    <t>2023-05-05T01:37:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
